--- a/data/TC001_Individuals.xlsx
+++ b/data/TC001_Individuals.xlsx
@@ -34,8 +34,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -54,39 +54,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,6 +102,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -147,6 +139,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -200,151 +200,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,40 +496,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -538,106 +544,100 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
